--- a/Febus mundo oriens; Lanista vipereus; Cornibus equivocis.xlsx
+++ b/Febus mundo oriens; Lanista vipereus; Cornibus equivocis.xlsx
@@ -398,7 +398,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>mundo</t>
+          <t>mundus</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -554,7 +554,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>signa</t>
+          <t>procul</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -564,7 +564,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>vi</t>
+          <t>quondam</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -574,89 +574,89 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>procul</t>
+          <t>ars</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>quondam</t>
+          <t>Total Average</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>sufficiens</t>
+          <t>Total Sum</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>magica</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Total Average</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-0.1428571428571428</v>
+          <t>Motetus Sentiment Words</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Sentiment Value</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Total Sum</t>
+          <t>dico</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>bonus</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Motetus Sentiment Words</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Sentiment Value</t>
-        </is>
+          <t>exitus</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>bonum</t>
+          <t>hostilis</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>hostilis</t>
+          <t>non</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -666,11 +666,11 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>non</t>
+          <t>unicus</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -680,7 +680,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.3333333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -690,7 +690,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -710,7 +710,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.1904761904761905</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
